--- a/resource/fmt_chi-squared-test.xlsx
+++ b/resource/fmt_chi-squared-test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a2130400\Desktop\2130400_本間弘規\04.CB推\03.計測\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a2130400\Desktop\2130400_本間弘規\04.CB推\03.計測\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6250"/>
   </bookViews>
   <sheets>
     <sheet name="使用方法" sheetId="2" r:id="rId1"/>
@@ -437,10 +437,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　└ sample</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>データの入力範囲</t>
     <rPh sb="4" eb="6">
       <t>ニュウリョク</t>
@@ -448,6 +444,10 @@
     <rPh sb="6" eb="8">
       <t>ハンイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　└ https://github.com/hirokihonma/chi-squared-test/blob/master/resource/fmt_chi-squared-test.xlsx</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2169,7 +2169,7 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="N8" s="33"/>
       <c r="O8" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2380,7 +2380,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2405,7 +2405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
